--- a/实验对比记录.xlsx
+++ b/实验对比记录.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceroo/Desktop/ATL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/521893c21be2ecc6/DATL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E62C13-5A0B-814C-B8F0-C499B115192E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{FDA23D3D-F2B1-F64A-9C86-B094CC08875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF91191-77F6-104E-8327-C1C76B56448E}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="11340" windowWidth="27820" windowHeight="13680" activeTab="3" xr2:uid="{BB82D988-AB16-1644-99E2-82BC2EB5693E}"/>
+    <workbookView xWindow="11640" yWindow="3400" windowWidth="27860" windowHeight="17500" activeTab="5" xr2:uid="{BB82D988-AB16-1644-99E2-82BC2EB5693E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="officehome" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="67">
   <si>
     <t>不确定度筛选</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +301,50 @@
   </si>
   <si>
     <t>不确定度 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTAL对未知类别的准确度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office-home 测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clipart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real_World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,9 +830,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,18 +861,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,55 +1134,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1">
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:14" s="9" customFormat="1">
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:14" s="9" customFormat="1"/>
     <row r="5" spans="1:14" ht="16" customHeight="1">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:14" ht="17">
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1159,13 +1217,13 @@
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="17">
       <c r="A7" s="9"/>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="8">
         <v>0.187</v>
       </c>
@@ -1291,13 +1349,13 @@
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="7">
         <v>0.14499999999999999</v>
       </c>
@@ -1609,73 +1667,73 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="13"/>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="9"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
     </row>
     <row r="11" spans="1:16" ht="17">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="72"/>
+      <c r="E11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66" t="s">
+      <c r="F11" s="72"/>
+      <c r="G11" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="66" t="s">
+      <c r="H11" s="72"/>
+      <c r="I11" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="66" t="s">
+      <c r="J11" s="72"/>
+      <c r="K11" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="66" t="s">
+      <c r="L11" s="72"/>
+      <c r="M11" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="67"/>
-      <c r="O11" s="68" t="s">
+      <c r="N11" s="72"/>
+      <c r="O11" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="69"/>
+      <c r="P11" s="74"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="14"/>
@@ -1724,10 +1782,10 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="39">
         <v>87.3</v>
       </c>
@@ -1774,10 +1832,10 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="42">
         <v>85.5</v>
       </c>
@@ -1824,10 +1882,10 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="39">
         <v>91.6</v>
       </c>
@@ -1874,10 +1932,10 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="52">
         <v>99.6</v>
       </c>
@@ -1924,10 +1982,10 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="45">
         <v>99.5</v>
       </c>
@@ -1976,12 +2034,12 @@
     <row r="22" spans="1:16" ht="17">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
     </row>
@@ -1998,8 +2056,8 @@
       <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
@@ -2010,8 +2068,8 @@
       <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="58"/>
       <c r="D25" s="58"/>
       <c r="E25" s="58"/>
@@ -2022,8 +2080,8 @@
       <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="58"/>
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
@@ -2034,8 +2092,8 @@
       <c r="J26" s="56"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
       <c r="E27" s="58"/>
@@ -2046,8 +2104,8 @@
       <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="73"/>
-      <c r="B28" s="73"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="58"/>
       <c r="D28" s="59"/>
       <c r="E28" s="58"/>
@@ -2072,14 +2130,14 @@
     <row r="30" spans="1:16" ht="17">
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="56"/>
@@ -2094,8 +2152,8 @@
       <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
@@ -2106,8 +2164,8 @@
       <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
@@ -2118,8 +2176,8 @@
       <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="58"/>
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
@@ -2130,8 +2188,8 @@
       <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
@@ -2142,8 +2200,8 @@
       <c r="J35" s="60"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="58"/>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
@@ -2155,28 +2213,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="C9:P9"/>
     <mergeCell ref="C10:P10"/>
     <mergeCell ref="K11:L11"/>
@@ -2186,6 +2222,28 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2203,11 +2261,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -2215,9 +2273,9 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2314,73 +2372,73 @@
     </row>
     <row r="10" spans="1:16">
       <c r="B10" s="12"/>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="9"/>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
     </row>
     <row r="12" spans="1:16" ht="17">
       <c r="A12" s="30"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="66" t="s">
+      <c r="D12" s="72"/>
+      <c r="E12" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66" t="s">
+      <c r="F12" s="72"/>
+      <c r="G12" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="66" t="s">
+      <c r="H12" s="72"/>
+      <c r="I12" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="66" t="s">
+      <c r="J12" s="72"/>
+      <c r="K12" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="67"/>
-      <c r="M12" s="66" t="s">
+      <c r="L12" s="72"/>
+      <c r="M12" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68" t="s">
+      <c r="N12" s="72"/>
+      <c r="O12" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="69"/>
+      <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="36"/>
@@ -2429,10 +2487,10 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="74"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="18">
         <v>98.3</v>
       </c>
@@ -2479,10 +2537,10 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="20">
         <v>96.2</v>
       </c>
@@ -2529,10 +2587,10 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="75"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="20">
         <v>95.3</v>
       </c>
@@ -2579,10 +2637,10 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="23">
         <v>100</v>
       </c>
@@ -2629,10 +2687,10 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="22">
         <v>100</v>
       </c>
@@ -2681,12 +2739,12 @@
     <row r="29" spans="1:16" ht="17">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="56"/>
       <c r="J29" s="56"/>
     </row>
@@ -2703,8 +2761,8 @@
       <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -2715,8 +2773,8 @@
       <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -2727,8 +2785,8 @@
       <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -2739,8 +2797,8 @@
       <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="61"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -2751,8 +2809,8 @@
       <c r="J34" s="56"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="61"/>
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
@@ -2777,14 +2835,14 @@
     <row r="37" spans="1:10" ht="17">
       <c r="A37" s="56"/>
       <c r="B37" s="56"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="56"/>
@@ -2799,8 +2857,8 @@
       <c r="J38" s="57"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="73"/>
-      <c r="B39" s="73"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -2811,8 +2869,8 @@
       <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="73"/>
-      <c r="B40" s="73"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -2823,8 +2881,8 @@
       <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="73"/>
-      <c r="B41" s="73"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -2835,8 +2893,8 @@
       <c r="J41" s="25"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="61"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -2847,8 +2905,8 @@
       <c r="J42" s="25"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="61"/>
       <c r="D43" s="25"/>
       <c r="E43" s="61"/>
@@ -2860,23 +2918,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="B1:D2"/>
@@ -2892,6 +2933,23 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2902,7 +2960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DF721E-F768-BC45-AFFF-CC745C164F05}">
   <dimension ref="C1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2912,34 +2970,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:11">
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="3:11">
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="3:11">
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="3:11">
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="11" spans="3:11">
       <c r="E11" t="s">
@@ -2962,10 +3020,10 @@
       </c>
     </row>
     <row r="12" spans="3:11">
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="65"/>
       <c r="E12">
         <v>93.8</v>
       </c>
@@ -2990,10 +3048,10 @@
       </c>
     </row>
     <row r="13" spans="3:11">
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="65"/>
       <c r="E13">
         <v>94.4</v>
       </c>
@@ -3080,4 +3138,773 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596D40F3-3CDB-E74E-B13C-3D4623F500C1}">
+  <dimension ref="C4:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="3:14">
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="64">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E10" s="64">
+        <v>1</v>
+      </c>
+      <c r="F10" s="64">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G10" s="64">
+        <v>1</v>
+      </c>
+      <c r="H10" s="64">
+        <v>1</v>
+      </c>
+      <c r="I10" s="64">
+        <v>1</v>
+      </c>
+      <c r="J10" s="64">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="K10" s="64">
+        <v>1</v>
+      </c>
+      <c r="L10" s="64">
+        <v>1</v>
+      </c>
+      <c r="M10" s="64">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="N10" s="64">
+        <f>AVERAGE(D10:M10)</f>
+        <v>0.8869999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="64">
+        <v>0.93</v>
+      </c>
+      <c r="E11" s="64">
+        <v>0.745</v>
+      </c>
+      <c r="F11" s="64">
+        <v>0.122</v>
+      </c>
+      <c r="G11" s="64">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="H11" s="64">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="I11" s="64">
+        <v>0.66</v>
+      </c>
+      <c r="J11" s="64">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="K11" s="64">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="L11" s="64">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="M11" s="64">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="N11" s="64">
+        <f t="shared" ref="N11:N15" si="0">AVERAGE(D11:M11)</f>
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="64">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F12" s="64">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G12" s="64">
+        <v>0.85</v>
+      </c>
+      <c r="H12" s="64">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I12" s="64">
+        <v>0.96</v>
+      </c>
+      <c r="J12" s="64">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="K12" s="64">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L12" s="64">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="M12" s="64">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N12" s="64">
+        <f t="shared" si="0"/>
+        <v>0.73419999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="64">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E13" s="64">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="F13" s="64">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G13" s="64">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="64">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="I13" s="64">
+        <v>1</v>
+      </c>
+      <c r="J13" s="64">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="K13" s="64">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="L13" s="64">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="M13" s="64">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="N13" s="64">
+        <f t="shared" si="0"/>
+        <v>0.64819999999999989</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="64">
+        <v>0.79</v>
+      </c>
+      <c r="E14" s="64">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F14" s="64">
+        <v>0.255</v>
+      </c>
+      <c r="G14" s="64">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="H14" s="64">
+        <v>0.72</v>
+      </c>
+      <c r="I14" s="64">
+        <v>0.72</v>
+      </c>
+      <c r="J14" s="64">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="K14" s="64">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="L14" s="64">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="M14" s="64">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="N14" s="64">
+        <f t="shared" si="0"/>
+        <v>0.61219999999999986</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="64">
+        <v>1</v>
+      </c>
+      <c r="E15" s="64">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="F15" s="64">
+        <v>1</v>
+      </c>
+      <c r="G15" s="64">
+        <v>1</v>
+      </c>
+      <c r="H15" s="64">
+        <v>1</v>
+      </c>
+      <c r="I15" s="64">
+        <v>1</v>
+      </c>
+      <c r="J15" s="64">
+        <v>1</v>
+      </c>
+      <c r="K15" s="64">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="L15" s="64">
+        <v>1</v>
+      </c>
+      <c r="M15" s="64">
+        <v>1</v>
+      </c>
+      <c r="N15" s="64">
+        <f t="shared" si="0"/>
+        <v>0.98619999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" s="64">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0.93</v>
+      </c>
+      <c r="F20" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="64">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H20" s="64">
+        <v>0.79</v>
+      </c>
+      <c r="I20" s="64">
+        <v>1</v>
+      </c>
+      <c r="J20" s="64">
+        <f>AVERAGE(D20:I20)</f>
+        <v>0.60616666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21" s="64">
+        <v>1</v>
+      </c>
+      <c r="E21" s="64">
+        <v>0.745</v>
+      </c>
+      <c r="F21" s="64">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G21" s="64">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="H21" s="64">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I21" s="64">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J21" s="64">
+        <f t="shared" ref="J21:J29" si="1">AVERAGE(D21:I21)</f>
+        <v>0.82066666666666677</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22" s="64">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E22" s="64">
+        <v>0.122</v>
+      </c>
+      <c r="F22" s="64">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G22" s="64">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H22" s="64">
+        <v>0.255</v>
+      </c>
+      <c r="I22" s="64">
+        <v>1</v>
+      </c>
+      <c r="J22" s="64">
+        <f t="shared" si="1"/>
+        <v>0.49199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23" s="64">
+        <v>1</v>
+      </c>
+      <c r="E23" s="64">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F23" s="64">
+        <v>0.85</v>
+      </c>
+      <c r="G23" s="64">
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="64">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="I23" s="64">
+        <v>1</v>
+      </c>
+      <c r="J23" s="64">
+        <f t="shared" si="1"/>
+        <v>0.86383333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24" s="64">
+        <v>1</v>
+      </c>
+      <c r="E24" s="64">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="F24" s="64">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="G24" s="64">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H24" s="64">
+        <v>0.72</v>
+      </c>
+      <c r="I24" s="64">
+        <v>1</v>
+      </c>
+      <c r="J24" s="64">
+        <f t="shared" si="1"/>
+        <v>0.86316666666666675</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" s="64">
+        <v>1</v>
+      </c>
+      <c r="E25" s="64">
+        <v>0.66</v>
+      </c>
+      <c r="F25" s="64">
+        <v>0.96</v>
+      </c>
+      <c r="G25" s="64">
+        <v>1</v>
+      </c>
+      <c r="H25" s="64">
+        <v>0.72</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1</v>
+      </c>
+      <c r="J25" s="64">
+        <f t="shared" si="1"/>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26" s="64">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="E26" s="64">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="F26" s="64">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="G26" s="64">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="H26" s="64">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="I26" s="64">
+        <v>1</v>
+      </c>
+      <c r="J26" s="64">
+        <f t="shared" si="1"/>
+        <v>0.78883333333333328</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27">
+        <v>17</v>
+      </c>
+      <c r="D27" s="64">
+        <v>1</v>
+      </c>
+      <c r="E27" s="64">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F27" s="64">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="G27" s="64">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="H27" s="64">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="I27" s="64">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J27" s="64">
+        <f t="shared" si="1"/>
+        <v>0.77833333333333343</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28" s="64">
+        <v>1</v>
+      </c>
+      <c r="E28" s="64">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F28" s="64">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="G28" s="64">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H28" s="64">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="I28" s="64">
+        <v>1</v>
+      </c>
+      <c r="J28" s="64">
+        <f t="shared" si="1"/>
+        <v>0.73533333333333328</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29" s="64">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="E29" s="64">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F29" s="64">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G29" s="64">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H29" s="64">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I29" s="64">
+        <v>1</v>
+      </c>
+      <c r="J29" s="64">
+        <f t="shared" si="1"/>
+        <v>0.67799999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="64">
+        <f t="shared" ref="D30:J30" si="2">AVERAGE(D20:D29)</f>
+        <v>0.8869999999999999</v>
+      </c>
+      <c r="E30" s="64">
+        <f t="shared" si="2"/>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="F30" s="64">
+        <f t="shared" si="2"/>
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="G30" s="64">
+        <f t="shared" si="2"/>
+        <v>0.64819999999999989</v>
+      </c>
+      <c r="H30" s="64">
+        <f t="shared" si="2"/>
+        <v>0.61219999999999986</v>
+      </c>
+      <c r="I30" s="64">
+        <f t="shared" si="2"/>
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="J30" s="64">
+        <f t="shared" si="2"/>
+        <v>0.75163333333333338</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59C83D5-CA58-1E4A-A1EE-30806BDFE65C}">
+  <dimension ref="B4:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>